--- a/ApolloQA/Data/RatingManual/SC/VA00065.Deductible_InsuranceScoreTierFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00065.Deductible_InsuranceScoreTierFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.Deductible_InsuranceScoreTierFactors" sheetId="1" r:id="R185504af75f74d78"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00065.Deductible_InsuranceScoreTierFactors" sheetId="1" r:id="Rfd9a4f0130614a60"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -631,6 +631,17 @@
         <x:v>$1,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>AB16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$1,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>AB17</x:v>
       </x:c>
       <x:c t="str">
@@ -1226,6 +1237,17 @@
       </x:c>
       <x:c t="str">
         <x:v>AB11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>AB12</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
